--- a/fake_news_dataset_india_another.xlsx
+++ b/fake_news_dataset_india_another.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Desktop\7th sem\minor project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD8EFDF3-A8FA-47CF-A8CE-B50038820730}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76E8AEB2-6F70-41A1-9115-3B461B3AF0E7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1982" uniqueCount="1645">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2100" uniqueCount="1716">
   <si>
     <t>Site-name</t>
   </si>
@@ -4955,6 +4955,219 @@
   </si>
   <si>
     <t>https://static.toiimg.com/img/65804719/Master.jpg</t>
+  </si>
+  <si>
+    <t>https://timesofindia.indiatimes.com/times-fact-check/news/alert-fake-twitter-accounts-in-the-name-of-isro-chief-k-sivan-on-the-rise/articleshow/71042559.cms</t>
+  </si>
+  <si>
+    <t>2019-09-09T13:41:58+05:30</t>
+  </si>
+  <si>
+    <t>Twitter accounts in the name of ISRO and ISRO chief Dr K Sivan</t>
+  </si>
+  <si>
+    <t>https://twitter.com/shivraj_Office</t>
+  </si>
+  <si>
+    <t>https://static.toiimg.com/img/71042943/Master.jpg</t>
+  </si>
+  <si>
+    <t>https://timesofindia.indiatimes.com/times-fact-check/news/fake-alert-no-this-is-not-a-video-of-hurricane-dorian-as-seen-from-florida/articleshow/71023231.cms</t>
+  </si>
+  <si>
+    <t>2019-09-07T16:05:08+05:30</t>
+  </si>
+  <si>
+    <t>Video of Hurricane Dorian as seen from Florida</t>
+  </si>
+  <si>
+    <t>https://twitter.com/OrgPhysics/status/1169880444961050625</t>
+  </si>
+  <si>
+    <t>https://static.toiimg.com/img/71024034/Master.jpg</t>
+  </si>
+  <si>
+    <t>https://timesofindia.indiatimes.com/times-fact-check/news/fake-alert-photo-of-rahul-gandhi-dining-with-pakistan-pm-imran-khan-is-digitally-manipulated/articleshow/71005061.cms</t>
+  </si>
+  <si>
+    <t>2019-09-06T12:32:48+05:30</t>
+  </si>
+  <si>
+    <t>Photo showing Rahul Gandhi having a meal with Pakistan PM Imran Khan</t>
+  </si>
+  <si>
+    <t>https://twitter.com/bhargvigouds/status/1169562321489821697</t>
+  </si>
+  <si>
+    <t>https://static.toiimg.com/img/71005708/Master.jpg</t>
+  </si>
+  <si>
+    <t>https://timesofindia.indiatimes.com/times-fact-check/news/fact-check-did-police-beat-up-retired-army-man-for-not-wearing-helmet/articleshow/70997292.cms</t>
+  </si>
+  <si>
+    <t>2019-09-05T19:58:48+05:30</t>
+  </si>
+  <si>
+    <t>Police beat up retired army man</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/plugins/video.php?href=https%3A%2F%2Fwww.facebook.com%2Frinkudharmpuri.rinkudharmpuri%2Fvideos%2F893640127659228%2F&amp;show_text=0&amp;width=560</t>
+  </si>
+  <si>
+    <t>https://static.toiimg.com/img/70997324/Master.jpg</t>
+  </si>
+  <si>
+    <t>https://timesofindia.indiatimes.com/times-fact-check/news/fact-check-no-tamil-actor-surya-hasnt-converted-to-islam/articleshow/70980791.cms</t>
+  </si>
+  <si>
+    <t>2019-09-04T19:57:45+05:30</t>
+  </si>
+  <si>
+    <t>Tamil superstar Suriya has converted to Islam.</t>
+  </si>
+  <si>
+    <t>https://twitter.com/naveenkvst/status/1167984314543296512</t>
+  </si>
+  <si>
+    <t>https://timesofindia.indiatimes.com/times-fact-check/news/fake-alert-no-this-is-not-a-video-of-protest-against-revocation-of-jks-special-status/articleshow/70974650.cms</t>
+  </si>
+  <si>
+    <t>2019-09-04T14:42:05+05:30</t>
+  </si>
+  <si>
+    <t>Protest march held against abrogation of Article 370 in Jammu and Kashmir</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/groups/298048107784656/permalink/374260276830105/</t>
+  </si>
+  <si>
+    <t>https://static.toiimg.com/img/70974845/Master.jpg</t>
+  </si>
+  <si>
+    <t>https://timesofindia.indiatimes.com/times-fact-check/news/fake-alert-muslims-in-wayanad-did-not-vandalise-br-ambedkar-statue/articleshow/70957085.cms</t>
+  </si>
+  <si>
+    <t>2019-09-03T14:26:30+05:30</t>
+  </si>
+  <si>
+    <t>Muslims in Wayanad vandalised Ambedkar statue</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/100005155127355/videos/1244433449071814/</t>
+  </si>
+  <si>
+    <t>https://static.toiimg.com/img/70958462/Master.jpg</t>
+  </si>
+  <si>
+    <t>https://timesofindia.indiatimes.com/times-fact-check/news/fact-check-were-these-46-women-victims-of-love-jihad-and-then-sold-off/articleshow/70947264.cms</t>
+  </si>
+  <si>
+    <t>2019-09-02T16:42:04+05:30</t>
+  </si>
+  <si>
+    <t>Image from 2018 used to claim police tracked down victims of 'love jihad'.</t>
+  </si>
+  <si>
+    <t>https://twitter.com/Nationalist_Om/status/1165601907856949249</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/plugins/video.php?href=https%3A%2F%2Fwww.facebook.com%2Fpatrikachhattisgarh%2Fvideos%2F687255241605710%2F&amp;show_text=0&amp;width=560</t>
+  </si>
+  <si>
+    <t>https://static.toiimg.com/img/70947327/Master.jpg</t>
+  </si>
+  <si>
+    <t>https://timesofindia.indiatimes.com/times-fact-check/news/fake-alert-no-this-woman-wasnt-beaten-up-by-policemen/articleshow/70925287.cms</t>
+  </si>
+  <si>
+    <t>2019-08-31T18:48:40+05:30</t>
+  </si>
+  <si>
+    <t>Images of an injured woman from 2016 are being used to make a false claim.</t>
+  </si>
+  <si>
+    <t>https://twitter.com/ANINewsUP/status/811770152786108416</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/plugins/post.php?href=https%3A%2F%2Fwww.facebook.com%2Fphoto.php%3Ffbid%3D180502129645841%26set%3Da.114816229547765%26type%3D3&amp;width=500</t>
+  </si>
+  <si>
+    <t>https://timesofindia.indiatimes.com/times-fact-check/news/fact-check-did-this-kashmiri-woman-ask-rahul-gandhi-not-to-go-to-kashmir/articleshow/70908846.cms</t>
+  </si>
+  <si>
+    <t>2019-08-30T15:51:56+05:30</t>
+  </si>
+  <si>
+    <t>Kashmiri woman asking Rahul to go back</t>
+  </si>
+  <si>
+    <t>https://twitter.com/yallaling_n/status/1166920493707849734</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/plugins/video.php?href=https%3A%2F%2Fwww.facebook.com%2Fanjilajith.ajithanjil%2Fvideos%2F2396678113772489%2F&amp;show_text=0&amp;width=560</t>
+  </si>
+  <si>
+    <t>https://timesofindia.indiatimes.com/times-fact-check/news/fake-alert-old-video-of-imran-khan-shared-as-him-losing-his-cool-because-of-pm-modi/articleshow/70896379.cms</t>
+  </si>
+  <si>
+    <t>2019-08-29T19:58:21+05:30</t>
+  </si>
+  <si>
+    <t>Old video of Imran shared to imply his current condition has gone worse because of PM Modi</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/plugins/video.php?href=https%3A%2F%2Fwww.facebook.com%2Fanil.jhurani.9%2Fvideos%2F2484683198247715%2F&amp;show_text=0&amp;width=560</t>
+  </si>
+  <si>
+    <t>https://static.toiimg.com/img/70896468/Master.jpg</t>
+  </si>
+  <si>
+    <t>https://timesofindia.indiatimes.com/times-fact-check/news/fake-alert-cj-werleman-tweets-old-video-to-claim-clashes-between-kashmiri-locals-and-security-forces/articleshow/71153781.cms</t>
+  </si>
+  <si>
+    <t>2019-09-16T19:42:25+05:30</t>
+  </si>
+  <si>
+    <t>Old video to claim clashes between Kashmiris and security forces</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/plugins/video.php?href=https%3A%2F%2Fwww.facebook.com%2F4Khashmir%2Fvideos%2F2677505172269327%2F&amp;show_text=0&amp;width=560</t>
+  </si>
+  <si>
+    <t>https://static.toiimg.com/img/71153880/Master.jpg</t>
+  </si>
+  <si>
+    <t>https://timesofindia.indiatimes.com/times-fact-check/news/fake-alert-man-being-thrashed-by-cops-has-nothing-to-do-with-new-motor-vehicles-act/articleshow/71149344.cms</t>
+  </si>
+  <si>
+    <t>2019-09-16T16:39:14+05:30</t>
+  </si>
+  <si>
+    <t>Police thrashed man for not following rules under new Motor Vehicles Act</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/herodas.jangde.3/videos/2396101467379135/</t>
+  </si>
+  <si>
+    <t>https://static.toiimg.com/img/71150009/Master.jpg</t>
+  </si>
+  <si>
+    <t>https://timesofindia.indiatimes.com/times-fact-check/news/fake-alert-image-from-syrian-civil-war-shared-as-one-from-kashmir/articleshow/71116033.cms</t>
+  </si>
+  <si>
+    <t>2019-09-13T20:18:00+05:30</t>
+  </si>
+  <si>
+    <t>Image from Syrian civil war shared as one from Kashmir</t>
+  </si>
+  <si>
+    <t>https://twitter.com/look_atmirror/status/1171683320884867072</t>
+  </si>
+  <si>
+    <t>https://static.toiimg.com/img/71116085/Master.jpg</t>
+  </si>
+  <si>
+    <t>Video of a woman  confronted by Police for ramming her car into three other cars  is going viral with false claim.</t>
   </si>
 </sst>
 </file>
@@ -5829,10 +6042,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H334"/>
+  <dimension ref="A1:H354"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A322" workbookViewId="0">
-      <selection activeCell="D340" sqref="D340"/>
+    <sheetView tabSelected="1" topLeftCell="A341" workbookViewId="0">
+      <selection activeCell="D350" sqref="D350"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12461,6 +12674,400 @@
       </c>
       <c r="G334" t="s">
         <v>1644</v>
+      </c>
+    </row>
+    <row r="335" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A335" t="s">
+        <v>7</v>
+      </c>
+      <c r="B335" t="s">
+        <v>1645</v>
+      </c>
+      <c r="C335" t="s">
+        <v>1646</v>
+      </c>
+      <c r="D335" t="s">
+        <v>1647</v>
+      </c>
+      <c r="E335" t="s">
+        <v>1648</v>
+      </c>
+      <c r="G335" t="s">
+        <v>1649</v>
+      </c>
+    </row>
+    <row r="336" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A336" t="s">
+        <v>7</v>
+      </c>
+      <c r="B336" t="s">
+        <v>1650</v>
+      </c>
+      <c r="C336" t="s">
+        <v>1651</v>
+      </c>
+      <c r="D336" t="s">
+        <v>1652</v>
+      </c>
+      <c r="E336" t="s">
+        <v>1653</v>
+      </c>
+      <c r="G336" t="s">
+        <v>1654</v>
+      </c>
+    </row>
+    <row r="337" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A337" t="s">
+        <v>7</v>
+      </c>
+      <c r="B337" t="s">
+        <v>1655</v>
+      </c>
+      <c r="C337" t="s">
+        <v>1656</v>
+      </c>
+      <c r="D337" t="s">
+        <v>1657</v>
+      </c>
+      <c r="E337" t="s">
+        <v>1658</v>
+      </c>
+      <c r="G337" t="s">
+        <v>1659</v>
+      </c>
+    </row>
+    <row r="338" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A338" t="s">
+        <v>7</v>
+      </c>
+      <c r="B338" t="s">
+        <v>1660</v>
+      </c>
+      <c r="C338" t="s">
+        <v>1661</v>
+      </c>
+      <c r="D338" t="s">
+        <v>1662</v>
+      </c>
+      <c r="F338" t="s">
+        <v>1663</v>
+      </c>
+      <c r="G338" t="s">
+        <v>1664</v>
+      </c>
+    </row>
+    <row r="339" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A339" t="s">
+        <v>7</v>
+      </c>
+      <c r="B339" t="s">
+        <v>1665</v>
+      </c>
+      <c r="C339" t="s">
+        <v>1666</v>
+      </c>
+      <c r="D339" t="s">
+        <v>1667</v>
+      </c>
+      <c r="E339" t="s">
+        <v>1668</v>
+      </c>
+    </row>
+    <row r="340" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A340" t="s">
+        <v>7</v>
+      </c>
+      <c r="B340" t="s">
+        <v>1669</v>
+      </c>
+      <c r="C340" t="s">
+        <v>1670</v>
+      </c>
+      <c r="D340" t="s">
+        <v>1671</v>
+      </c>
+      <c r="F340" t="s">
+        <v>1672</v>
+      </c>
+      <c r="G340" t="s">
+        <v>1673</v>
+      </c>
+    </row>
+    <row r="341" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A341" t="s">
+        <v>7</v>
+      </c>
+      <c r="B341" t="s">
+        <v>1674</v>
+      </c>
+      <c r="C341" t="s">
+        <v>1675</v>
+      </c>
+      <c r="D341" t="s">
+        <v>1676</v>
+      </c>
+      <c r="F341" t="s">
+        <v>1677</v>
+      </c>
+      <c r="G341" t="s">
+        <v>1678</v>
+      </c>
+    </row>
+    <row r="342" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A342" t="s">
+        <v>7</v>
+      </c>
+      <c r="B342" t="s">
+        <v>1679</v>
+      </c>
+      <c r="C342" t="s">
+        <v>1680</v>
+      </c>
+      <c r="D342" t="s">
+        <v>1681</v>
+      </c>
+      <c r="E342" t="s">
+        <v>1682</v>
+      </c>
+      <c r="F342" t="s">
+        <v>1683</v>
+      </c>
+      <c r="G342" t="s">
+        <v>1684</v>
+      </c>
+    </row>
+    <row r="343" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A343" t="s">
+        <v>7</v>
+      </c>
+      <c r="B343" t="s">
+        <v>1685</v>
+      </c>
+      <c r="C343" t="s">
+        <v>1686</v>
+      </c>
+      <c r="D343" t="s">
+        <v>1687</v>
+      </c>
+      <c r="E343" t="s">
+        <v>1688</v>
+      </c>
+      <c r="F343" t="s">
+        <v>1689</v>
+      </c>
+    </row>
+    <row r="344" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A344" t="s">
+        <v>7</v>
+      </c>
+      <c r="B344" t="s">
+        <v>1690</v>
+      </c>
+      <c r="C344" t="s">
+        <v>1691</v>
+      </c>
+      <c r="D344" t="s">
+        <v>1692</v>
+      </c>
+      <c r="E344" t="s">
+        <v>1693</v>
+      </c>
+      <c r="F344" t="s">
+        <v>1694</v>
+      </c>
+    </row>
+    <row r="345" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A345" t="s">
+        <v>7</v>
+      </c>
+      <c r="B345" t="s">
+        <v>1695</v>
+      </c>
+      <c r="C345" t="s">
+        <v>1696</v>
+      </c>
+      <c r="D345" t="s">
+        <v>1697</v>
+      </c>
+      <c r="F345" t="s">
+        <v>1698</v>
+      </c>
+      <c r="G345" t="s">
+        <v>1699</v>
+      </c>
+    </row>
+    <row r="346" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A346" t="s">
+        <v>7</v>
+      </c>
+      <c r="B346" t="s">
+        <v>217</v>
+      </c>
+      <c r="C346" t="s">
+        <v>218</v>
+      </c>
+      <c r="D346" t="s">
+        <v>219</v>
+      </c>
+      <c r="E346" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="347" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A347" t="s">
+        <v>7</v>
+      </c>
+      <c r="B347" t="s">
+        <v>221</v>
+      </c>
+      <c r="C347" t="s">
+        <v>222</v>
+      </c>
+      <c r="D347" t="s">
+        <v>223</v>
+      </c>
+      <c r="E347" t="s">
+        <v>224</v>
+      </c>
+      <c r="G347" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="348" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A348" t="s">
+        <v>7</v>
+      </c>
+      <c r="B348" t="s">
+        <v>226</v>
+      </c>
+      <c r="C348" t="s">
+        <v>227</v>
+      </c>
+      <c r="D348" t="s">
+        <v>228</v>
+      </c>
+      <c r="G348" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="349" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A349" t="s">
+        <v>7</v>
+      </c>
+      <c r="B349" t="s">
+        <v>230</v>
+      </c>
+      <c r="C349" t="s">
+        <v>231</v>
+      </c>
+      <c r="D349" t="s">
+        <v>232</v>
+      </c>
+      <c r="F349" t="s">
+        <v>233</v>
+      </c>
+      <c r="G349" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="350" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A350" t="s">
+        <v>7</v>
+      </c>
+      <c r="B350" t="s">
+        <v>235</v>
+      </c>
+      <c r="C350" t="s">
+        <v>236</v>
+      </c>
+      <c r="D350" t="s">
+        <v>1715</v>
+      </c>
+      <c r="E350" t="s">
+        <v>237</v>
+      </c>
+      <c r="G350" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="351" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A351" t="s">
+        <v>7</v>
+      </c>
+      <c r="B351" t="s">
+        <v>239</v>
+      </c>
+      <c r="C351" t="s">
+        <v>240</v>
+      </c>
+      <c r="D351" t="s">
+        <v>241</v>
+      </c>
+      <c r="F351" t="s">
+        <v>242</v>
+      </c>
+      <c r="G351" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="352" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A352" t="s">
+        <v>7</v>
+      </c>
+      <c r="B352" t="s">
+        <v>1700</v>
+      </c>
+      <c r="C352" t="s">
+        <v>1701</v>
+      </c>
+      <c r="D352" t="s">
+        <v>1702</v>
+      </c>
+      <c r="F352" t="s">
+        <v>1703</v>
+      </c>
+      <c r="G352" t="s">
+        <v>1704</v>
+      </c>
+    </row>
+    <row r="353" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A353" t="s">
+        <v>7</v>
+      </c>
+      <c r="B353" t="s">
+        <v>1705</v>
+      </c>
+      <c r="C353" t="s">
+        <v>1706</v>
+      </c>
+      <c r="D353" t="s">
+        <v>1707</v>
+      </c>
+      <c r="F353" t="s">
+        <v>1708</v>
+      </c>
+      <c r="G353" t="s">
+        <v>1709</v>
+      </c>
+    </row>
+    <row r="354" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A354" t="s">
+        <v>7</v>
+      </c>
+      <c r="B354" t="s">
+        <v>1710</v>
+      </c>
+      <c r="C354" t="s">
+        <v>1711</v>
+      </c>
+      <c r="D354" t="s">
+        <v>1712</v>
+      </c>
+      <c r="E354" t="s">
+        <v>1713</v>
+      </c>
+      <c r="G354" t="s">
+        <v>1714</v>
       </c>
     </row>
   </sheetData>
